--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07477033333333334</v>
+        <v>0.56387</v>
       </c>
       <c r="H2">
-        <v>0.224311</v>
+        <v>1.69161</v>
       </c>
       <c r="I2">
-        <v>1.596509572667761E-05</v>
+        <v>8.015158928347893E-05</v>
       </c>
       <c r="J2">
-        <v>1.596509572667761E-05</v>
+        <v>8.015158928347896E-05</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N2">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O2">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P2">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q2">
-        <v>0.3553339462195557</v>
+        <v>6.989821235546667</v>
       </c>
       <c r="R2">
-        <v>3.198005515976</v>
+        <v>62.90839111992</v>
       </c>
       <c r="S2">
-        <v>6.628132470544964E-07</v>
+        <v>7.168845096294478E-06</v>
       </c>
       <c r="T2">
-        <v>6.628132470544964E-07</v>
+        <v>7.168845096294479E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07477033333333334</v>
+        <v>0.56387</v>
       </c>
       <c r="H3">
-        <v>0.224311</v>
+        <v>1.69161</v>
       </c>
       <c r="I3">
-        <v>1.596509572667761E-05</v>
+        <v>8.015158928347893E-05</v>
       </c>
       <c r="J3">
-        <v>1.596509572667761E-05</v>
+        <v>8.015158928347896E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N3">
         <v>21.28786</v>
       </c>
       <c r="O3">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P3">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q3">
-        <v>0.5305667960511112</v>
+        <v>4.001195206066666</v>
       </c>
       <c r="R3">
-        <v>4.775101164460001</v>
+        <v>36.0107568546</v>
       </c>
       <c r="S3">
-        <v>9.896794398941217E-07</v>
+        <v>4.103674137824306E-06</v>
       </c>
       <c r="T3">
-        <v>9.896794398941217E-07</v>
+        <v>4.103674137824307E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07477033333333334</v>
+        <v>0.56387</v>
       </c>
       <c r="H4">
-        <v>0.224311</v>
+        <v>1.69161</v>
       </c>
       <c r="I4">
-        <v>1.596509572667761E-05</v>
+        <v>8.015158928347893E-05</v>
       </c>
       <c r="J4">
-        <v>1.596509572667761E-05</v>
+        <v>8.015158928347896E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N4">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O4">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P4">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q4">
-        <v>2.044610790774778</v>
+        <v>19.65866255931333</v>
       </c>
       <c r="R4">
-        <v>18.401497116973</v>
+        <v>176.92796303382</v>
       </c>
       <c r="S4">
-        <v>3.813863357594146E-06</v>
+        <v>2.016216179769285E-05</v>
       </c>
       <c r="T4">
-        <v>3.813863357594147E-06</v>
+        <v>2.016216179769286E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.07477033333333334</v>
+        <v>0.56387</v>
       </c>
       <c r="H5">
-        <v>0.224311</v>
+        <v>1.69161</v>
       </c>
       <c r="I5">
-        <v>1.596509572667761E-05</v>
+        <v>8.015158928347893E-05</v>
       </c>
       <c r="J5">
-        <v>1.596509572667761E-05</v>
+        <v>8.015158928347896E-05</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N5">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O5">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P5">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q5">
-        <v>0.2994656777701111</v>
+        <v>0.88166600426</v>
       </c>
       <c r="R5">
-        <v>2.695191099931</v>
+        <v>7.934994038340001</v>
       </c>
       <c r="S5">
-        <v>5.586007764694086E-07</v>
+        <v>9.042473045041367E-07</v>
       </c>
       <c r="T5">
-        <v>5.586007764694087E-07</v>
+        <v>9.04247304504137E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.07477033333333334</v>
+        <v>0.56387</v>
       </c>
       <c r="H6">
-        <v>0.224311</v>
+        <v>1.69161</v>
       </c>
       <c r="I6">
-        <v>1.596509572667761E-05</v>
+        <v>8.015158928347893E-05</v>
       </c>
       <c r="J6">
-        <v>1.596509572667761E-05</v>
+        <v>8.015158928347896E-05</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N6">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O6">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P6">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q6">
-        <v>3.853072967299667</v>
+        <v>29.15887645285</v>
       </c>
       <c r="R6">
-        <v>34.677656705697</v>
+        <v>262.42988807565</v>
       </c>
       <c r="S6">
-        <v>7.187232832001359E-06</v>
+        <v>2.990569592959294E-05</v>
       </c>
       <c r="T6">
-        <v>7.18723283200136E-06</v>
+        <v>2.990569592959295E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.07477033333333334</v>
+        <v>0.56387</v>
       </c>
       <c r="H7">
-        <v>0.224311</v>
+        <v>1.69161</v>
       </c>
       <c r="I7">
-        <v>1.596509572667761E-05</v>
+        <v>8.015158928347893E-05</v>
       </c>
       <c r="J7">
-        <v>1.596509572667761E-05</v>
+        <v>8.015158928347896E-05</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N7">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O7">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P7">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q7">
-        <v>1.475831967864111</v>
+        <v>17.45978364195667</v>
       </c>
       <c r="R7">
-        <v>13.282487710777</v>
+        <v>157.13805277761</v>
       </c>
       <c r="S7">
-        <v>2.752906073664076E-06</v>
+        <v>1.790696501757022E-05</v>
       </c>
       <c r="T7">
-        <v>2.752906073664076E-06</v>
+        <v>1.790696501757022E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.36643533333334</v>
+        <v>137.2749936666667</v>
       </c>
       <c r="H8">
-        <v>160.099306</v>
+        <v>411.824981</v>
       </c>
       <c r="I8">
-        <v>0.01139489702272581</v>
+        <v>0.01951302412127413</v>
       </c>
       <c r="J8">
-        <v>0.01139489702272582</v>
+        <v>0.01951302412127413</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N8">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O8">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P8">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q8">
-        <v>253.6153741367663</v>
+        <v>1701.682419424337</v>
       </c>
       <c r="R8">
-        <v>2282.538367230897</v>
+        <v>15315.14177481903</v>
       </c>
       <c r="S8">
-        <v>0.0004730750648030253</v>
+        <v>0.001745266045704044</v>
       </c>
       <c r="T8">
-        <v>0.0004730750648030254</v>
+        <v>0.001745266045704044</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.36643533333334</v>
+        <v>137.2749936666667</v>
       </c>
       <c r="H9">
-        <v>160.099306</v>
+        <v>411.824981</v>
       </c>
       <c r="I9">
-        <v>0.01139489702272581</v>
+        <v>0.01951302412127413</v>
       </c>
       <c r="J9">
-        <v>0.01139489702272582</v>
+        <v>0.01951302412127413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N9">
         <v>21.28786</v>
       </c>
       <c r="O9">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P9">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q9">
-        <v>378.6857346916845</v>
+        <v>974.0969488922957</v>
       </c>
       <c r="R9">
-        <v>3408.171612225161</v>
+        <v>8766.872540030659</v>
       </c>
       <c r="S9">
-        <v>0.0007063719188515836</v>
+        <v>0.0009990455978858524</v>
       </c>
       <c r="T9">
-        <v>0.0007063719188515837</v>
+        <v>0.0009990455978858524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>53.36643533333334</v>
+        <v>137.2749936666667</v>
       </c>
       <c r="H10">
-        <v>160.099306</v>
+        <v>411.824981</v>
       </c>
       <c r="I10">
-        <v>0.01139489702272581</v>
+        <v>0.01951302412127413</v>
       </c>
       <c r="J10">
-        <v>0.01139489702272582</v>
+        <v>0.01951302412127413</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N10">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O10">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P10">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q10">
-        <v>1459.316612395973</v>
+        <v>4785.930761212469</v>
       </c>
       <c r="R10">
-        <v>13133.84951156376</v>
+        <v>43073.37685091222</v>
       </c>
       <c r="S10">
-        <v>0.002722099570371727</v>
+        <v>0.004908508402796026</v>
       </c>
       <c r="T10">
-        <v>0.002722099570371728</v>
+        <v>0.004908508402796026</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>53.36643533333334</v>
+        <v>137.2749936666667</v>
       </c>
       <c r="H11">
-        <v>160.099306</v>
+        <v>411.824981</v>
       </c>
       <c r="I11">
-        <v>0.01139489702272581</v>
+        <v>0.01951302412127413</v>
       </c>
       <c r="J11">
-        <v>0.01139489702272582</v>
+        <v>0.01951302412127413</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N11">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O11">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P11">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q11">
-        <v>213.7400625997585</v>
+        <v>214.6429055472127</v>
       </c>
       <c r="R11">
-        <v>1923.660563397826</v>
+        <v>1931.786149924914</v>
       </c>
       <c r="S11">
-        <v>0.0003986946544922605</v>
+        <v>0.0002201403568178939</v>
       </c>
       <c r="T11">
-        <v>0.0003986946544922606</v>
+        <v>0.0002201403568178939</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>53.36643533333334</v>
+        <v>137.2749936666667</v>
       </c>
       <c r="H12">
-        <v>160.099306</v>
+        <v>411.824981</v>
       </c>
       <c r="I12">
-        <v>0.01139489702272581</v>
+        <v>0.01951302412127413</v>
       </c>
       <c r="J12">
-        <v>0.01139489702272582</v>
+        <v>0.01951302412127413</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N12">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O12">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P12">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q12">
-        <v>2750.084962538785</v>
+        <v>7098.77202261532</v>
       </c>
       <c r="R12">
-        <v>24750.76466284907</v>
+        <v>63888.94820353788</v>
       </c>
       <c r="S12">
-        <v>0.005129801875359799</v>
+        <v>0.007280586339638802</v>
       </c>
       <c r="T12">
-        <v>0.0051298018753598</v>
+        <v>0.007280586339638801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>53.36643533333334</v>
+        <v>137.2749936666667</v>
       </c>
       <c r="H13">
-        <v>160.099306</v>
+        <v>411.824981</v>
       </c>
       <c r="I13">
-        <v>0.01139489702272581</v>
+        <v>0.01951302412127413</v>
       </c>
       <c r="J13">
-        <v>0.01139489702272582</v>
+        <v>0.01951302412127413</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N13">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O13">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P13">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q13">
-        <v>1053.357498418083</v>
+        <v>4250.610404651732</v>
       </c>
       <c r="R13">
-        <v>9480.217485762743</v>
+        <v>38255.49364186559</v>
       </c>
       <c r="S13">
-        <v>0.001964853938847419</v>
+        <v>0.004359477378431507</v>
       </c>
       <c r="T13">
-        <v>0.001964853938847419</v>
+        <v>0.004359477378431507</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4627.449869666667</v>
+        <v>6857.887858000001</v>
       </c>
       <c r="H14">
-        <v>13882.349609</v>
+        <v>20573.663574</v>
       </c>
       <c r="I14">
-        <v>0.9880613987672937</v>
+        <v>0.9748179739063494</v>
       </c>
       <c r="J14">
-        <v>0.9880613987672939</v>
+        <v>0.9748179739063495</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N14">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O14">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P14">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q14">
-        <v>21991.20894367853</v>
+        <v>85011.45686212434</v>
       </c>
       <c r="R14">
-        <v>197920.8804931068</v>
+        <v>765103.111759119</v>
       </c>
       <c r="S14">
-        <v>0.04102074896499507</v>
+        <v>0.08718877709713366</v>
       </c>
       <c r="T14">
-        <v>0.04102074896499507</v>
+        <v>0.08718877709713366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4627.449869666667</v>
+        <v>6857.887858000001</v>
       </c>
       <c r="H15">
-        <v>13882.349609</v>
+        <v>20573.663574</v>
       </c>
       <c r="I15">
-        <v>0.9880613987672937</v>
+        <v>0.9748179739063494</v>
       </c>
       <c r="J15">
-        <v>0.9880613987672939</v>
+        <v>0.9748179739063495</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N15">
         <v>21.28786</v>
       </c>
       <c r="O15">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P15">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q15">
-        <v>32836.16832749409</v>
+        <v>48663.2522056013</v>
       </c>
       <c r="R15">
-        <v>295525.5149474468</v>
+        <v>437969.2698504116</v>
       </c>
       <c r="S15">
-        <v>0.06125012141825188</v>
+        <v>0.04990961931468944</v>
       </c>
       <c r="T15">
-        <v>0.06125012141825188</v>
+        <v>0.04990961931468944</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4627.449869666667</v>
+        <v>6857.887858000001</v>
       </c>
       <c r="H16">
-        <v>13882.349609</v>
+        <v>20573.663574</v>
       </c>
       <c r="I16">
-        <v>0.9880613987672937</v>
+        <v>0.9748179739063494</v>
       </c>
       <c r="J16">
-        <v>0.9880613987672939</v>
+        <v>0.9748179739063495</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N16">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O16">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P16">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q16">
-        <v>126538.6085027904</v>
+        <v>239092.1724334228</v>
       </c>
       <c r="R16">
-        <v>1138847.476525114</v>
+        <v>2151829.551900805</v>
       </c>
       <c r="S16">
-        <v>0.2360356134611166</v>
+        <v>0.2452158202838053</v>
       </c>
       <c r="T16">
-        <v>0.2360356134611166</v>
+        <v>0.2452158202838053</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4627.449869666667</v>
+        <v>6857.887858000001</v>
       </c>
       <c r="H17">
-        <v>13882.349609</v>
+        <v>20573.663574</v>
       </c>
       <c r="I17">
-        <v>0.9880613987672937</v>
+        <v>0.9748179739063494</v>
       </c>
       <c r="J17">
-        <v>0.9880613987672939</v>
+        <v>0.9748179739063495</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N17">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O17">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P17">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q17">
-        <v>18533.58611348004</v>
+        <v>10722.97973899309</v>
       </c>
       <c r="R17">
-        <v>166802.2750213204</v>
+        <v>96506.81765093777</v>
       </c>
       <c r="S17">
-        <v>0.03457115910859115</v>
+        <v>0.01099761755402513</v>
       </c>
       <c r="T17">
-        <v>0.03457115910859116</v>
+        <v>0.01099761755402513</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4627.449869666667</v>
+        <v>6857.887858000001</v>
       </c>
       <c r="H18">
-        <v>13882.349609</v>
+        <v>20573.663574</v>
       </c>
       <c r="I18">
-        <v>0.9880613987672937</v>
+        <v>0.9748179739063494</v>
       </c>
       <c r="J18">
-        <v>0.9880613987672939</v>
+        <v>0.9748179739063495</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N18">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O18">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P18">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q18">
-        <v>238462.2510756985</v>
+        <v>354635.4740967283</v>
       </c>
       <c r="R18">
-        <v>2146160.259681286</v>
+        <v>3191719.266870554</v>
       </c>
       <c r="S18">
-        <v>0.4448095674983662</v>
+        <v>0.3637184262340531</v>
       </c>
       <c r="T18">
-        <v>0.4448095674983663</v>
+        <v>0.363718426234053</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4627.449869666667</v>
+        <v>6857.887858000001</v>
       </c>
       <c r="H19">
-        <v>13882.349609</v>
+        <v>20573.663574</v>
       </c>
       <c r="I19">
-        <v>0.9880613987672937</v>
+        <v>0.9748179739063494</v>
       </c>
       <c r="J19">
-        <v>0.9880613987672939</v>
+        <v>0.9748179739063495</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N19">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O19">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P19">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q19">
-        <v>91337.54181483763</v>
+        <v>212349.0134986463</v>
       </c>
       <c r="R19">
-        <v>822037.8763335387</v>
+        <v>1911141.121487816</v>
       </c>
       <c r="S19">
-        <v>0.170374188315973</v>
+        <v>0.2177877134226428</v>
       </c>
       <c r="T19">
-        <v>0.170374188315973</v>
+        <v>0.2177877134226428</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>2.471593666666667</v>
+        <v>39.31781133333333</v>
       </c>
       <c r="H20">
-        <v>7.414781</v>
+        <v>117.953434</v>
       </c>
       <c r="I20">
-        <v>0.0005277391142536491</v>
+        <v>0.005588850383092994</v>
       </c>
       <c r="J20">
-        <v>0.0005277391142536492</v>
+        <v>0.005588850383092995</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N20">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O20">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P20">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q20">
-        <v>11.74585015038845</v>
+        <v>487.3897752903164</v>
       </c>
       <c r="R20">
-        <v>105.712651353496</v>
+        <v>4386.507977612848</v>
       </c>
       <c r="S20">
-        <v>2.190982640533895E-05</v>
+        <v>0.0004998728412116235</v>
       </c>
       <c r="T20">
-        <v>2.190982640533895E-05</v>
+        <v>0.0004998728412116235</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>2.471593666666667</v>
+        <v>39.31781133333333</v>
       </c>
       <c r="H21">
-        <v>7.414781</v>
+        <v>117.953434</v>
       </c>
       <c r="I21">
-        <v>0.0005277391142536491</v>
+        <v>0.005588850383092994</v>
       </c>
       <c r="J21">
-        <v>0.0005277391142536492</v>
+        <v>0.005588850383092995</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N21">
         <v>21.28786</v>
       </c>
       <c r="O21">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P21">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q21">
-        <v>17.53831331762889</v>
+        <v>278.9973543901377</v>
       </c>
       <c r="R21">
-        <v>157.84481985866</v>
+        <v>2510.97618951124</v>
       </c>
       <c r="S21">
-        <v>3.271465201001099E-05</v>
+        <v>0.0002861430569536514</v>
       </c>
       <c r="T21">
-        <v>3.271465201001099E-05</v>
+        <v>0.0002861430569536514</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>2.471593666666667</v>
+        <v>39.31781133333333</v>
       </c>
       <c r="H22">
-        <v>7.414781</v>
+        <v>117.953434</v>
       </c>
       <c r="I22">
-        <v>0.0005277391142536491</v>
+        <v>0.005588850383092994</v>
       </c>
       <c r="J22">
-        <v>0.0005277391142536492</v>
+        <v>0.005588850383092995</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N22">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O22">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P22">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q22">
-        <v>67.58625855990923</v>
+        <v>1370.769123331167</v>
       </c>
       <c r="R22">
-        <v>608.276327039183</v>
+        <v>12336.92210998051</v>
       </c>
       <c r="S22">
-        <v>0.0001260703289650765</v>
+        <v>0.001405877371794613</v>
       </c>
       <c r="T22">
-        <v>0.0001260703289650765</v>
+        <v>0.001405877371794613</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>2.471593666666667</v>
+        <v>39.31781133333333</v>
       </c>
       <c r="H23">
-        <v>7.414781</v>
+        <v>117.953434</v>
       </c>
       <c r="I23">
-        <v>0.0005277391142536491</v>
+        <v>0.005588850383092994</v>
       </c>
       <c r="J23">
-        <v>0.0005277391142536492</v>
+        <v>0.005588850383092995</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N23">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O23">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P23">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q23">
-        <v>9.899079481977889</v>
+        <v>61.47725116517733</v>
       </c>
       <c r="R23">
-        <v>89.09171533780099</v>
+        <v>553.295260486596</v>
       </c>
       <c r="S23">
-        <v>1.846499914828349E-05</v>
+        <v>6.305181144087976E-05</v>
       </c>
       <c r="T23">
-        <v>1.846499914828349E-05</v>
+        <v>6.305181144087976E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>2.471593666666667</v>
+        <v>39.31781133333333</v>
       </c>
       <c r="H24">
-        <v>7.414781</v>
+        <v>117.953434</v>
       </c>
       <c r="I24">
-        <v>0.0005277391142536491</v>
+        <v>0.005588850383092994</v>
       </c>
       <c r="J24">
-        <v>0.0005277391142536492</v>
+        <v>0.005588850383092995</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N24">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O24">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P24">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q24">
-        <v>127.3664342343763</v>
+        <v>2033.204822148957</v>
       </c>
       <c r="R24">
-        <v>1146.297908109387</v>
+        <v>18298.84339934061</v>
       </c>
       <c r="S24">
-        <v>0.0002375797773863068</v>
+        <v>0.002085279426732704</v>
       </c>
       <c r="T24">
-        <v>0.0002375797773863068</v>
+        <v>0.002085279426732704</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>2.471593666666667</v>
+        <v>39.31781133333333</v>
       </c>
       <c r="H25">
-        <v>7.414781</v>
+        <v>117.953434</v>
       </c>
       <c r="I25">
-        <v>0.0005277391142536491</v>
+        <v>0.005588850383092994</v>
       </c>
       <c r="J25">
-        <v>0.0005277391142536492</v>
+        <v>0.005588850383092995</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N25">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O25">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P25">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q25">
-        <v>48.78481587845189</v>
+        <v>1217.444586793537</v>
       </c>
       <c r="R25">
-        <v>439.063342906067</v>
+        <v>10957.00128114183</v>
       </c>
       <c r="S25">
-        <v>9.099953033863247E-05</v>
+        <v>0.001248625874959522</v>
       </c>
       <c r="T25">
-        <v>9.099953033863247E-05</v>
+        <v>0.001248625874959522</v>
       </c>
     </row>
   </sheetData>
